--- a/static/main_cryptojob.xlsx
+++ b/static/main_cryptojob.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A101"/>
+  <dimension ref="A1:A140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1140,6 +1140,279 @@
         </is>
       </c>
     </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>https://cryptojobslist.com/jobs/head-of-engineering-cere-network-europe</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>https://cryptojobslist.com/jobs/senior-backend-engineer-dappradar-remote-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>https://cryptojobslist.com/jobs/incident-responder-apac-chainlink-labs-remote</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>https://cryptojobslist.com/jobs/principal-engineer-chainlink-labs-remote</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>https://cryptojobslist.com/marketing/market-strategy-manager-capital-markets-chainlink-labs-remote</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>https://cryptojobslist.com/jobs/senior-data-partnerships-manager-chainlink-labs-remote</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>https://cryptojobslist.com/jobs/strategic-finance-manager-chainlink-labs-remote</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>https://cryptojobslist.com/jobs/research-engineer-chainlink-labs-remote</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>https://cryptojobslist.com/jobs/senior-site-reliability-engineer-chainlink-labs-remote</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>https://cryptojobslist.com/jobs/technical-account-manager-chainlink-labs-remote</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>https://cryptojobslist.com/jobs/engineering-manager-blockchain-integrations-chainlink-labs-remote</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>https://cryptojobslist.com/jobs/senior-people-business-partner-chainlink-labs-remote</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>https://cryptojobslist.com/marketing/social-media-marketing-specialist-apex-digital-solutions-dubai</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>https://cryptojobslist.com/marketing/brand-strategist-copywriter-otherlife-moonpay-toronto-canada</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>https://cryptojobslist.com/jobs/director-of-total-rewards-moonpay-uk-eu</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>https://cryptojobslist.com/jobs/internship-development-certik-new-york-seattle-bay-area-remote</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>https://cryptojobslist.com/jobs/devops-engineer-art-blocks-remote</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>https://cryptojobslist.com/jobs/head-of-infrastructure-chainsafe-systems-remote</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>https://cryptojobslist.com/marketing/head-of-sales-chainsafe-systems-toronto</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>https://cryptojobslist.com/jobs/senior-software-engineer-frontend-chainalysis-remote-can</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>https://cryptojobslist.com/jobs/front-end-engineer-aptos-palo-alto</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>https://cryptojobslist.com/jobs/region-lead-south-east-asia-scroll-io-singapore</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>https://cryptojobslist.com/marketing/developer-relations-sygma-chainsafe-systems-toronto-canada-or-remote</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>https://cryptojobslist.com/jobs/senior-agile-practitioner-chainsafe-systems-remote</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>https://cryptojobslist.com/jobs/executive-assistant-to-the-ceo-subspace-labs-palo-alto-ca</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>https://cryptojobslist.com/jobs/kyc-analyst-japan-binance-asia</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>https://cryptojobslist.com/jobs/wallet-operations-specialist-binance-asia</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>https://cryptojobslist.com/jobs/vp-communications-yuga-labs-remote</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>https://cryptojobslist.com/jobs/compliance-officer-money-laundering-reporting-officer-co-mlro-measa-binance-uae-dubai</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>https://cryptojobslist.com/jobs/bap-spot-wallet-operations-binance-asia</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>https://cryptojobslist.com/jobs/suspicious-activity-report-sar-investigator-binance-asia</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>https://cryptojobslist.com/jobs/director-of-core-compliance-programs-binance-ireland-dublin</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>https://cryptojobslist.com/marketing/senior-product-manager-gaming-chainsafe-systems-berlin-or-remote-cet-est-hours-only</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>https://cryptojobslist.com/jobs/senior-backend-engineer-uniswap-labs-new-york-or-remote</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>https://cryptojobslist.com/marketing/growth-marketing-manager-uniswap-labs-new-york-new-york-united-states</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>https://cryptojobslist.com/marketing/africa-senior-marketing-manager-binance-south-africa-cape-town</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>https://cryptojobslist.com/marketing/graphic-designer-remote-metaschool-singapore</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>https://cryptojobslist.com/jobs/global-head-of-business-development-amp-partnerships-remote-metaschool-singapore</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>https://cryptojobslist.com/jobs/sales-manager-metaschool-singapore</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
